--- a/Big O.xlsx
+++ b/Big O.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA Repos\rsa-encryption-decryption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan Lanna Alexandre\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D8468E-57FD-494F-9A90-784CECBFED59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DB3582-258C-42D6-BF67-0153A848D8B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="25470" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25470" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Big O JIT off" sheetId="6" r:id="rId1"/>
@@ -60,16 +60,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>Column1</t>
+    <t>p</t>
   </si>
   <si>
-    <t>Column2</t>
+    <t>q</t>
   </si>
   <si>
-    <t>Column3</t>
+    <t>n</t>
   </si>
   <si>
-    <t>Column4</t>
+    <t>Time in milliseconds</t>
   </si>
 </sst>
 </file>
@@ -17306,10 +17306,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1AED259-123A-4CDC-B40A-3340EAF77F81}" name="output_jit_off__3" displayName="output_jit_off__3" ref="A1:D1284" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D1284" xr:uid="{D1671196-3D1C-492D-B9FF-746D6338D29A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A774CD5-04EC-44A6-9E38-D8D849FD2BED}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1A0C39B4-5660-4D59-A786-21D309B379F9}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{7B95AAC9-C7B8-4DEA-886A-5DCB5601C996}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C55E3499-562A-4ADC-BF63-490DF3A23258}" uniqueName="4" name="Column4" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{7A774CD5-04EC-44A6-9E38-D8D849FD2BED}" uniqueName="1" name="p" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{1A0C39B4-5660-4D59-A786-21D309B379F9}" uniqueName="2" name="q" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{7B95AAC9-C7B8-4DEA-886A-5DCB5601C996}" uniqueName="3" name="n" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{C55E3499-562A-4ADC-BF63-490DF3A23258}" uniqueName="4" name="Time in milliseconds" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17319,10 +17319,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A591DCCA-FC32-4114-96D4-C48C205E10F4}" name="output__2" displayName="output__2" ref="A1:D2758" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D2758" xr:uid="{44E8E91C-D0EE-4925-BEE7-E5F7122AB9C0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{11DE0B4B-FF9C-4406-9BAB-73F748947390}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{6215333D-F3CC-435A-9228-7243561F9160}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{324455E8-EA26-48C6-9C4B-1FF4CE88044E}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{BB0755B9-3B34-4757-9F75-45EFDB5E7ADB}" uniqueName="4" name="Column4" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{11DE0B4B-FF9C-4406-9BAB-73F748947390}" uniqueName="1" name="p" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{6215333D-F3CC-435A-9228-7243561F9160}" uniqueName="2" name="q" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{324455E8-EA26-48C6-9C4B-1FF4CE88044E}" uniqueName="3" name="n" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{BB0755B9-3B34-4757-9F75-45EFDB5E7ADB}" uniqueName="4" name="Time in milliseconds" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17593,13 +17593,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8891348-F65D-4D58-8AA2-B21823BF26F7}">
   <dimension ref="A1:D1284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -35591,13 +35592,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0491AB54-24CB-4409-BB6F-90E61EF48048}">
   <dimension ref="A1:D2758"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
